--- a/input_files/UC_case_study_5bus_network_C.xlsx
+++ b/input_files/UC_case_study_5bus_network_C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bus index" sheetId="5" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>Bubble SEN Wind 2014-2045_0910refyr.csv</t>
   </si>
   <si>
-    <t>Bubble NEN Wind 2014-2045_0910refyr.csv</t>
-  </si>
-  <si>
     <t>CAN Solar PV.csv</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Bubble HUN Wind 2014-2045_0910refyr.csv</t>
   </si>
 </sst>
 </file>
@@ -229,6 +229,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -948,7 +949,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,6 +978,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="639">
@@ -1949,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1994,8 +1998,8 @@
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>56</v>
+      <c r="D2" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>41</v>
@@ -2015,7 +2019,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2032,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2046,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2085,7 +2089,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2127,8 +2131,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C8" si="0">(PI()/6)/(E2/100)*D2</f>
-        <v>6.9813170079773175E-3</v>
+        <f>(PI()/12)/(E2/100)*D2</f>
+        <v>3.4906585039886587E-3</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -2148,8 +2152,8 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" si="0"/>
-        <v>6.9813170079773175E-3</v>
+        <f>(PI()/12)/(E3/100)*D3</f>
+        <v>3.4906585039886587E-3</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -2169,14 +2173,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8699956271367814E-2</v>
+        <f t="shared" ref="C4:C8" si="0">(PI()/6)/(E4/100)*D4</f>
+        <v>1.9392547244381438E-2</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -2190,14 +2194,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0943951023931952E-2</v>
+        <f>(PI()/3)/(E5/100)*D5</f>
+        <v>5.8177641733144311E-2</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -2212,13 +2216,13 @@
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.0471975511965976E-2</v>
+        <v>1.0908307824964559E-2</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -2254,13 +2258,13 @@
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>1.1635528346628862E-2</v>
+        <v>1.1382582078223888E-2</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -2281,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2333,7 +2337,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2627,10 +2631,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>

--- a/input_files/UC_case_study_5bus_network_C.xlsx
+++ b/input_files/UC_case_study_5bus_network_C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bus index" sheetId="5" r:id="rId1"/>
@@ -229,7 +229,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1953,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2088,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2132,13 +2131,13 @@
       </c>
       <c r="C2" s="9">
         <f>(PI()/12)/(E2/100)*D2</f>
-        <v>3.4906585039886587E-3</v>
+        <v>2.6179938779914941E-3</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -2153,13 +2152,13 @@
       </c>
       <c r="C3" s="9">
         <f>(PI()/12)/(E3/100)*D3</f>
-        <v>3.4906585039886587E-3</v>
+        <v>2.6179938779914941E-3</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -2409,7 +2408,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2643,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="5">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="5">
         <f>0.01*E4</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G4" s="5">
         <f>E4</f>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="H4" s="5">
         <f>G4</f>
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
